--- a/商品数据.xlsx
+++ b/商品数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>产品名</t>
   </si>
@@ -65,6 +65,100 @@
   </si>
   <si>
     <t>冷冻(-18℃以下保存</t>
+  </si>
+  <si>
+    <t>谷言 预制菜 料理包 常温牛肉麻婆豆腐200g*3袋 加热即食 捷百味</t>
+  </si>
+  <si>
+    <t>豆腐[水、大豆、食品添加剂(硫酸钙、葡萄糖酸-δ-内酯)]、水、大豆油、牛肉、豆瓣、大蒜、麻辣风味酱（半固态复合调味酱）、酿造酱油、鸡粉调味剂、味精、姜、辣椒、香辛料、乙酰化、双淀粉乙二醇酯、呈味核苷酸二钠</t>
+  </si>
+  <si>
+    <t>12个月</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>叮叮懒人菜 活鱼酸菜鱼</t>
+  </si>
+  <si>
+    <t>活鱼黑鱼片:黑鱼(活黑鱼)、饮用水、复合调味料(含焦磷酸钠)、
+淀粉复合调味料、香辛料。
+脆爽酸菜:芥菜、萝卜、食用盐、植物油、食用猪油、增鲜复合
+调味料、生姜、大蒜、香辛料、辣椒、乳酸。
+黄金酸汤底:水、增鲜复合调味料、植物油、洋葱、食用鸡油、
+黄灯笼酱、姜、骨汤调味料、蒜、酿造食醋、南瓜粉、乙酰化双
+淀粉己二酸酯、泡萝卜、泡辣椒。</t>
+  </si>
+  <si>
+    <t>叮叮懒人菜 双蛋白/无抗藜麦鸡排</t>
+  </si>
+  <si>
+    <t>鸡肉、水、淀粉、复合调味料、三色藜麦(≥3%)</t>
+  </si>
+  <si>
+    <t>:12 个 月</t>
+  </si>
+  <si>
+    <t>诚信诚懒人菜酸菜鱼半成品美食快手菜</t>
+  </si>
+  <si>
+    <t>酸菜鱼调料：酱腌菜(青菜、生姜、小米辣)、植物油、食用猪油、食用鸡油、味精、豆豉、白酒、白砂糖、食用盐、复合體水解植物蛋白调味粉(酸水解植物
+蛋白调味液、麦芽糊精、食用盐、荾花好油)、酵母抽提物、香辛料、食品添加剂(冰乙酸、柠檬酸、柠檬黄、玻珀脸二钠、5-呈味核苷酸二钠、
+D-异抗坏血酸钠、山梨酸钾)
+金汤酸辣酱：南瓜、水、食用鸡油、豆酱、辣椒酱,食用香精香料、食用盐、味精、白砂糖、大葱,生姜,大蒜、食品添加剂(冰乙酸、5'-星味核苷酸
+二钠、脱氢乙酸钠、黄原胶、D-异抗坏血酸钠、柠檬黄、山聚酸钾)
+免浆黑鱼片：黑鱼片、水、淀粉、食用盐、复配水分保持剂(磷酸三钠、三聚破酸钠,焦碘酸钠,六偏磷酸钠、磷酸氢二钠、磷酸二氧钠)、藻糖、味精。
+藤椒油(菜籽油、藤椒果)、食用香精香料</t>
+  </si>
+  <si>
+    <t>调味品(非即食)/速冻调制食品（非即食生制品）</t>
+  </si>
+  <si>
+    <t>湘上厨小炒黄牛肉225g预制菜半成品酒店餐
+饮用特色水煮牛肉片私房菜食材</t>
+  </si>
+  <si>
+    <t>牛肉、大豆分离蛋白、水、食品添加剂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>冷冻预制肉类食品</t>
+  </si>
+  <si>
+    <t>灰灰菜新鲜冷冻蔬菜青菜酒店饭店预制菜半成品快手菜小炒菜250g</t>
+  </si>
+  <si>
+    <t>灰灰菜、水</t>
+  </si>
+  <si>
+    <t>18个月</t>
+  </si>
+  <si>
+    <t>Q/PJN0001S</t>
+  </si>
+  <si>
+    <t>韩国泡菜韩式泡菜辣白菜450克*5袋朝鲜族下饭小咸菜酱菜开胃菜</t>
+  </si>
+  <si>
+    <t>白菜、食用盐水、辣椒、洋葱、白萝卜、大蒜、生姜、麦芽糖浆、食品
+液加剂:谷氨酸缺、黄原胶、冰醋酸、复配甜味剂(甜蜜素、安赛宝、糖精钠)
+复配游腐剂(苯甲酸钠、山梨酸钾、乙二胺四乙酸二钠、D-异抗坏血酸钠、乳酸
+链球菌素、氯化钾)</t>
+  </si>
+  <si>
+    <t>90天</t>
+  </si>
+  <si>
+    <t>SB/T10439</t>
+  </si>
+  <si>
+    <t>盐水清菜</t>
+  </si>
+  <si>
+    <t>避光保存，低温冷藏</t>
   </si>
 </sst>
 </file>
@@ -81,7 +175,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -95,7 +189,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -103,14 +197,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +212,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +220,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -134,7 +228,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -142,7 +236,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -150,14 +244,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -165,7 +259,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +267,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -181,14 +275,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -196,42 +290,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -686,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -696,57 +790,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常規" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="貨幣" xfId="2" builtinId="4"/>
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
     <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="貨幣[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超鏈接" xfId="6" builtinId="8"/>
+    <cellStyle name="已訪問的超鏈接" xfId="7" builtinId="9"/>
+    <cellStyle name="註釋" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文字" xfId="9" builtinId="11"/>
+    <cellStyle name="標題" xfId="10" builtinId="15"/>
+    <cellStyle name="解釋性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="標題 1" xfId="12" builtinId="16"/>
+    <cellStyle name="標題 2" xfId="13" builtinId="17"/>
+    <cellStyle name="標題 3" xfId="14" builtinId="18"/>
+    <cellStyle name="標題 4" xfId="15" builtinId="19"/>
+    <cellStyle name="輸入" xfId="16" builtinId="20"/>
+    <cellStyle name="輸出" xfId="17" builtinId="21"/>
+    <cellStyle name="計算" xfId="18" builtinId="22"/>
+    <cellStyle name="檢查儲存格" xfId="19" builtinId="23"/>
+    <cellStyle name="鏈接儲存格" xfId="20" builtinId="24"/>
+    <cellStyle name="匯總" xfId="21" builtinId="25"/>
     <cellStyle name="好" xfId="22" builtinId="26"/>
     <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="適中" xfId="24" builtinId="28"/>
+    <cellStyle name="強調文字顏色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 強調文字顏色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 強調文字顏色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 強調文字顏色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="強調文字顏色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 強調文字顏色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 強調文字顏色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 強調文字顏色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="強調文字顏色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 強調文字顏色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 強調文字顏色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 強調文字顏色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="強調文字顏色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 強調文字顏色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 強調文字顏色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 強調文字顏色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="強調文字顏色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 強調文字顏色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 強調文字顏色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 強調文字顏色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="強調文字顏色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 強調文字顏色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 強調文字顏色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 強調文字顏色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1007,19 +1107,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="56.175" customWidth="1"/>
-    <col min="4" max="4" width="13.9666666666667" customWidth="1"/>
-    <col min="5" max="5" width="25.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.9333333333333" customWidth="1"/>
+    <col min="1" max="1" width="68.4" customWidth="1"/>
+    <col min="2" max="2" width="62.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="18.8190476190476" customWidth="1"/>
+    <col min="5" max="5" width="44.2" customWidth="1"/>
+    <col min="6" max="6" width="30.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:6">
@@ -1042,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:6">
+    <row r="2" ht="43.5" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1060,6 +1160,146 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="55.5" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="167" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="239" customHeight="1" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="105" customHeight="1" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="103.5" spans="1:6">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1318,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1095,7 +1335,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/商品数据.xlsx
+++ b/商品数据.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655"/>
+    <workbookView windowWidth="14400" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="配料表及其属性" sheetId="1" r:id="rId1"/>
+    <sheet name="营养成分表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>产品名</t>
   </si>
@@ -128,7 +128,7 @@
     <t>冷冻预制肉类食品</t>
   </si>
   <si>
-    <t>灰灰菜新鲜冷冻蔬菜青菜酒店饭店预制菜半成品快手菜小炒菜250g</t>
+    <t>泽垚灰灰菜新鲜冷冻蔬菜青菜酒店饭店预制菜半成品快手菜小炒菜250g</t>
   </si>
   <si>
     <t>灰灰菜、水</t>
@@ -140,7 +140,7 @@
     <t>Q/PJN0001S</t>
   </si>
   <si>
-    <t>韩国泡菜韩式泡菜辣白菜450克*5袋朝鲜族下饭小咸菜酱菜开胃菜</t>
+    <t>吉顺合韩国泡菜韩式泡菜辣白菜450克*5袋朝鲜族下饭小咸菜酱菜开胃菜</t>
   </si>
   <si>
     <t>白菜、食用盐水、辣椒、洋葱、白萝卜、大蒜、生姜、麦芽糖浆、食品
@@ -159,6 +159,147 @@
   </si>
   <si>
     <t>避光保存，低温冷藏</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>营养成分表</t>
+  </si>
+  <si>
+    <t>能量</t>
+  </si>
+  <si>
+    <t>蛋白质</t>
+  </si>
+  <si>
+    <t>脂肪</t>
+  </si>
+  <si>
+    <t>碳水化合物</t>
+  </si>
+  <si>
+    <t>营养素参考值</t>
+  </si>
+  <si>
+    <t>每100克(g)</t>
+  </si>
+  <si>
+    <t>863kJ</t>
+  </si>
+  <si>
+    <t>15.6g</t>
+  </si>
+  <si>
+    <t>15.8g</t>
+  </si>
+  <si>
+    <t>0.8g</t>
+  </si>
+  <si>
+    <t>229mg</t>
+  </si>
+  <si>
+    <t>663kJ</t>
+  </si>
+  <si>
+    <t>7.0g</t>
+  </si>
+  <si>
+    <t>13.2g</t>
+  </si>
+  <si>
+    <t>2.7g</t>
+  </si>
+  <si>
+    <t>596mg</t>
+  </si>
+  <si>
+    <t>306kJ</t>
+  </si>
+  <si>
+    <t>12.1g</t>
+  </si>
+  <si>
+    <t>1.8g</t>
+  </si>
+  <si>
+    <t>2.0g</t>
+  </si>
+  <si>
+    <t>690mg</t>
+  </si>
+  <si>
+    <t>391kJ</t>
+  </si>
+  <si>
+    <t>14.1g</t>
+  </si>
+  <si>
+    <t>1.0g</t>
+  </si>
+  <si>
+    <t>6.7g</t>
+  </si>
+  <si>
+    <t>445mg</t>
+  </si>
+  <si>
+    <t>267kJ</t>
+  </si>
+  <si>
+    <t>9.7g</t>
+  </si>
+  <si>
+    <t>2.3g</t>
+  </si>
+  <si>
+    <t>619mg</t>
+  </si>
+  <si>
+    <t>湘上厨小炒黄牛肉225g预制菜半成品酒店餐饮用特色水煮牛肉片私房菜食材</t>
+  </si>
+  <si>
+    <t>532kJ</t>
+  </si>
+  <si>
+    <t>13.4g</t>
+  </si>
+  <si>
+    <t>8.2g</t>
+  </si>
+  <si>
+    <t>0g</t>
+  </si>
+  <si>
+    <t>207mg</t>
+  </si>
+  <si>
+    <t>89kJ</t>
+  </si>
+  <si>
+    <t>3.6g</t>
+  </si>
+  <si>
+    <t>0.3g</t>
+  </si>
+  <si>
+    <t>0&amp;</t>
+  </si>
+  <si>
+    <t>0mg</t>
+  </si>
+  <si>
+    <t>134kJ</t>
+  </si>
+  <si>
+    <t>1.7g</t>
+  </si>
+  <si>
+    <t>5.5g</t>
+  </si>
+  <si>
+    <t>1460mg</t>
   </si>
 </sst>
 </file>
@@ -175,7 +316,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +330,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -197,14 +338,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +353,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +361,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +369,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +377,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -244,14 +385,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +400,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -267,7 +408,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -275,14 +416,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -290,42 +431,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -780,9 +921,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -798,55 +957,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常規" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="貨幣" xfId="2" builtinId="4"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
     <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="貨幣[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超鏈接" xfId="6" builtinId="8"/>
-    <cellStyle name="已訪問的超鏈接" xfId="7" builtinId="9"/>
-    <cellStyle name="註釋" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文字" xfId="9" builtinId="11"/>
-    <cellStyle name="標題" xfId="10" builtinId="15"/>
-    <cellStyle name="解釋性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="標題 1" xfId="12" builtinId="16"/>
-    <cellStyle name="標題 2" xfId="13" builtinId="17"/>
-    <cellStyle name="標題 3" xfId="14" builtinId="18"/>
-    <cellStyle name="標題 4" xfId="15" builtinId="19"/>
-    <cellStyle name="輸入" xfId="16" builtinId="20"/>
-    <cellStyle name="輸出" xfId="17" builtinId="21"/>
-    <cellStyle name="計算" xfId="18" builtinId="22"/>
-    <cellStyle name="檢查儲存格" xfId="19" builtinId="23"/>
-    <cellStyle name="鏈接儲存格" xfId="20" builtinId="24"/>
-    <cellStyle name="匯總" xfId="21" builtinId="25"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
     <cellStyle name="好" xfId="22" builtinId="26"/>
     <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="適中" xfId="24" builtinId="28"/>
-    <cellStyle name="強調文字顏色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 強調文字顏色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 強調文字顏色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 強調文字顏色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="強調文字顏色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 強調文字顏色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 強調文字顏色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 強調文字顏色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="強調文字顏色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 強調文字顏色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 強調文字顏色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 強調文字顏色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="強調文字顏色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 強調文字顏色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 強調文字顏色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 強調文字顏色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="強調文字顏色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 強調文字顏色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 強調文字顏色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 強調文字顏色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="強調文字顏色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 強調文字顏色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 強調文字顏色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 強調文字顏色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1109,24 +1268,24 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="68.4" customWidth="1"/>
-    <col min="2" max="2" width="62.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="18.8190476190476" customWidth="1"/>
+    <col min="2" max="2" width="62.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.8166666666667" customWidth="1"/>
     <col min="5" max="5" width="44.2" customWidth="1"/>
-    <col min="6" max="6" width="30.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="30.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1142,11 +1301,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="43.5" spans="1:6">
+    <row r="2" ht="40.5" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -1162,14 +1321,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="55.5" spans="1:6">
+    <row r="3" ht="54" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
@@ -1186,7 +1345,7 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -1226,7 +1385,7 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
@@ -1243,7 +1402,7 @@
       </c>
     </row>
     <row r="7" ht="105" customHeight="1" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
@@ -1252,7 +1411,7 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
@@ -1282,11 +1441,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="103.5" spans="1:6">
+    <row r="9" ht="81" spans="1:6">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
@@ -1312,14 +1471,381 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="69.375" customWidth="1"/>
+    <col min="2" max="11" width="12.1916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" ht="16" customHeight="1" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1335,7 +1861,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
